--- a/bom.xlsx
+++ b/bom.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\GitHub\Silvia-ESP32\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1C64576-7ABA-4AA0-BBFB-6E5EB819B7B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{762175D3-AC75-41D7-8BC4-9A16D6020E3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{64074A34-875D-4049-8DA3-21C573844780}"/>
+    <workbookView minimized="1" xWindow="780" yWindow="780" windowWidth="28800" windowHeight="15435" xr2:uid="{64074A34-875D-4049-8DA3-21C573844780}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
   <si>
     <t>SIlvia V6</t>
   </si>
@@ -129,6 +129,21 @@
   </si>
   <si>
     <t>Anderson Metals</t>
+  </si>
+  <si>
+    <t>L7805</t>
+  </si>
+  <si>
+    <t>ST</t>
+  </si>
+  <si>
+    <t>5v Regulator</t>
+  </si>
+  <si>
+    <t>12v PSU</t>
+  </si>
+  <si>
+    <t>12v AC Power supply</t>
   </si>
 </sst>
 </file>
@@ -489,17 +504,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56E77AF8-7CAC-4EC6-9412-B3B9340EA85B}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="25" customWidth="1"/>
     <col min="3" max="3" width="18.7109375" customWidth="1"/>
-    <col min="4" max="4" width="55.140625" customWidth="1"/>
+    <col min="4" max="4" width="56.42578125" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -644,21 +660,49 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>7</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B13" t="s">
         <v>29</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C13" t="s">
         <v>31</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D13" t="s">
         <v>30</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>